--- a/Tables_data/VEG_fam_counts_2023.xlsx
+++ b/Tables_data/VEG_fam_counts_2023.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD9606D-D3EC-48E9-8C2D-C703586648D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB66D9AD-B6E5-4D07-A7FD-E81E032BEB11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Both" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Both!$A$1:$B$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$28</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
   <si>
     <t>Family</t>
   </si>
@@ -110,6 +112,27 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>AG Family</t>
+  </si>
+  <si>
+    <t>Amaranthaceae</t>
+  </si>
+  <si>
+    <t>Caryophyllaceae</t>
+  </si>
+  <si>
+    <t>Juncaceae</t>
+  </si>
+  <si>
+    <t>Malvaceae</t>
+  </si>
+  <si>
+    <t>Onagraceae</t>
+  </si>
+  <si>
+    <t>Solanaceae</t>
   </si>
 </sst>
 </file>
@@ -552,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,4 +1075,366 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB1F612-BD42-492F-9FE3-6D62597EF15D}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="A1:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8">
+        <v>486</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>129</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B28" xr:uid="{19F46D8D-AA6A-4DC1-B1CB-DBD3AA245E34}">
+    <sortState ref="A2:B28">
+      <sortCondition descending="1" ref="B1:B28"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>